--- a/results/results_RReliefF_graphs.xlsx
+++ b/results/results_RReliefF_graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C970475B-C04D-43AB-84D6-A204CCB161EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DB8F54-5D4C-4923-877B-DC683754DD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3270" windowWidth="15600" windowHeight="18840" xr2:uid="{AC6D3CE8-634E-4CC4-9BD5-D6CCBE23229D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AC6D3CE8-634E-4CC4-9BD5-D6CCBE23229D}"/>
   </bookViews>
   <sheets>
     <sheet name="SVR" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="NN_results" localSheetId="2">NN!$A$1:$G$23</definedName>
+    <definedName name="RF_reliefF_results" localSheetId="1">RF!$P$19:$V$39</definedName>
     <definedName name="RF_results" localSheetId="1">RF!$A$1:$G$23</definedName>
     <definedName name="SVR_results" localSheetId="0">SVR!$A$1:$G$23</definedName>
   </definedNames>
@@ -53,7 +54,20 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{1D07D76F-3077-435D-A29E-0C7346C9CC1E}" name="RF_results" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="2" xr16:uid="{70721061-292F-4266-906D-44C5A0D49981}" name="RF_reliefF_results" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\RF_reliefF_results.csv" comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{1D07D76F-3077-435D-A29E-0C7346C9CC1E}" name="RF_results" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\RF_results.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -66,7 +80,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{58ECEF8D-61AA-4F1E-9FD3-6AA76FD4A7C8}" name="SVR_results" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="4" xr16:uid="{58ECEF8D-61AA-4F1E-9FD3-6AA76FD4A7C8}" name="SVR_results" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\SVR_results.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -117,7 +131,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -151,7 +165,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2387,31 +2401,31 @@
                   <c:v>4.7800000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0939999999999999E-2</c:v>
+                  <c:v>5.0979999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.7190000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6980000000000001E-2</c:v>
+                  <c:v>4.6969999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7190000000000003E-2</c:v>
+                  <c:v>4.7160000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7210000000000002E-2</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5629999999999997E-2</c:v>
+                  <c:v>4.5620000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4209999999999999E-2</c:v>
+                  <c:v>4.3529999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4.36E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3880000000000002E-2</c:v>
+                  <c:v>4.351E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2527,34 +2541,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1724</c:v>
+                  <c:v>0.17241000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18081</c:v>
+                  <c:v>0.18092</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17050999999999999</c:v>
+                  <c:v>0.17050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17055000000000001</c:v>
+                  <c:v>0.17054</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17157</c:v>
+                  <c:v>0.17149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17165</c:v>
+                  <c:v>0.17136000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16939000000000001</c:v>
+                  <c:v>0.16947999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16613</c:v>
+                  <c:v>0.16442000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16516</c:v>
+                  <c:v>0.16517999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16550999999999999</c:v>
+                  <c:v>0.16466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2670,34 +2684,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.41066000000000003</c:v>
+                  <c:v>0.41060000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37189</c:v>
+                  <c:v>0.37142999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41816999999999999</c:v>
+                  <c:v>0.41803000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41913</c:v>
+                  <c:v>0.41937999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41789999999999999</c:v>
+                  <c:v>0.41832999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41728999999999999</c:v>
+                  <c:v>0.41986000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43658000000000002</c:v>
+                  <c:v>0.43672</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45357999999999998</c:v>
+                  <c:v>0.46200999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46115</c:v>
+                  <c:v>0.46111999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45841999999999999</c:v>
+                  <c:v>0.46278999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2811,34 +2825,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.41292000000000001</c:v>
+                  <c:v>0.41284999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37423000000000001</c:v>
+                  <c:v>0.37378</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42008000000000001</c:v>
+                  <c:v>0.41998000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42160999999999998</c:v>
+                  <c:v>0.42185</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42104000000000003</c:v>
+                  <c:v>0.42152000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.42066999999999999</c:v>
+                  <c:v>0.42315999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43996000000000002</c:v>
+                  <c:v>0.44013000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45639000000000002</c:v>
+                  <c:v>0.46467999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46322999999999998</c:v>
+                  <c:v>0.46323999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.46068999999999999</c:v>
+                  <c:v>0.46505999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2952,34 +2966,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.66503999999999996</c:v>
+                  <c:v>0.66559000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67303000000000002</c:v>
+                  <c:v>0.67330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65790000000000004</c:v>
+                  <c:v>0.65878000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66947999999999996</c:v>
+                  <c:v>0.66727000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65342</c:v>
+                  <c:v>0.65615000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65093000000000001</c:v>
+                  <c:v>0.64819000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64287000000000005</c:v>
+                  <c:v>0.64319000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.63302000000000003</c:v>
+                  <c:v>0.63292999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63070000000000004</c:v>
+                  <c:v>0.63027999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66063000000000005</c:v>
+                  <c:v>0.66386999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3452,7 +3466,7 @@
                   <c:v>4.8070000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6559999999999999E-2</c:v>
+                  <c:v>5.6570000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.3439999999999999E-2</c:v>
@@ -3461,22 +3475,22 @@
                   <c:v>4.0710000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2320000000000003E-2</c:v>
+                  <c:v>4.2290000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0649999999999999E-2</c:v>
+                  <c:v>4.0710000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1320000000000003E-2</c:v>
+                  <c:v>4.1329999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.036E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0099999999999997E-2</c:v>
+                  <c:v>4.0189999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8949999999999999E-2</c:v>
+                  <c:v>3.8600000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3595,31 +3609,31 @@
                   <c:v>0.17655999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19323000000000001</c:v>
+                  <c:v>0.19322</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16794000000000001</c:v>
+                  <c:v>0.16797999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16150999999999999</c:v>
+                  <c:v>0.16156999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16502</c:v>
+                  <c:v>0.16492000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16258</c:v>
+                  <c:v>0.16277</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.16284999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16092999999999999</c:v>
+                  <c:v>0.16095000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16055</c:v>
+                  <c:v>0.16070999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15858</c:v>
+                  <c:v>0.15776999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3735,34 +3749,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.30048000000000002</c:v>
+                  <c:v>0.30052000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17616999999999999</c:v>
+                  <c:v>0.17599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36719000000000002</c:v>
+                  <c:v>0.36718000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.40810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38668999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.40805999999999998</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.38618000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.40903</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40021000000000001</c:v>
+                  <c:v>0.40007999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.41254999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41716999999999999</c:v>
+                  <c:v>0.41589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.434</c:v>
+                  <c:v>0.43902000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3876,34 +3890,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.30403999999999998</c:v>
+                  <c:v>0.30406</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17996999999999999</c:v>
+                  <c:v>0.17977000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37029000000000001</c:v>
+                  <c:v>0.37030000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41042000000000001</c:v>
+                  <c:v>0.41044999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38899</c:v>
+                  <c:v>0.38945000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41309000000000001</c:v>
+                  <c:v>0.41220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40309</c:v>
+                  <c:v>0.40290999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41610000000000003</c:v>
+                  <c:v>0.41607</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41959999999999997</c:v>
+                  <c:v>0.41837000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.43685000000000002</c:v>
+                  <c:v>0.44175999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4017,34 +4031,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.58804999999999996</c:v>
+                  <c:v>0.58809999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61465999999999998</c:v>
+                  <c:v>0.61445000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57567999999999997</c:v>
+                  <c:v>0.57616999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57793000000000005</c:v>
+                  <c:v>0.57886000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55427999999999999</c:v>
+                  <c:v>0.55369000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55713000000000001</c:v>
+                  <c:v>0.55730000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56433</c:v>
+                  <c:v>0.56523999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56394999999999995</c:v>
+                  <c:v>0.56460999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57230999999999999</c:v>
+                  <c:v>0.57118000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56323999999999996</c:v>
+                  <c:v>0.56150999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4427,31 +4441,31 @@
                   <c:v>4.7800000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0939999999999999E-2</c:v>
+                  <c:v>5.0979999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.7190000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6980000000000001E-2</c:v>
+                  <c:v>4.6969999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7190000000000003E-2</c:v>
+                  <c:v>4.7160000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7210000000000002E-2</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5629999999999997E-2</c:v>
+                  <c:v>4.5620000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4209999999999999E-2</c:v>
+                  <c:v>4.3529999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4.36E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3880000000000002E-2</c:v>
+                  <c:v>4.351E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10935,14 +10949,18 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SVR_results" connectionId="3" xr16:uid="{B9339D59-30A5-46FB-9DA9-89D874C5F819}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SVR_results" connectionId="4" xr16:uid="{B9339D59-30A5-46FB-9DA9-89D874C5F819}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_results" connectionId="2" xr16:uid="{583210D7-8790-400D-B425-3CB1B84FCB6F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_reliefF_results" connectionId="2" xr16:uid="{7B4A6772-D174-4B7C-9CC2-F63A5D94DC46}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_results" connectionId="3" xr16:uid="{583210D7-8790-400D-B425-3CB1B84FCB6F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NN_results" connectionId="1" xr16:uid="{F85D14C2-1A35-4058-8C82-922395C60458}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -12389,7 +12407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5863D7C3-7A4F-4420-AEEB-0842CB319AF9}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -12927,8 +12945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6838D4C6-CCEB-401B-A7FA-4AB81D104128}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="A2:E11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12936,6 +12954,9 @@
     <col min="1" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -12966,16 +12987,16 @@
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="B2" s="1">
-        <v>0.1724</v>
+        <v>0.17241000000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>0.41066000000000003</v>
+        <v>0.41060000000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>0.41292000000000001</v>
+        <v>0.41284999999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.66503999999999996</v>
+        <v>0.66559000000000001</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -12986,19 +13007,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>5.0939999999999999E-2</v>
+        <v>5.0979999999999998E-2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.18081</v>
+        <v>0.18092</v>
       </c>
       <c r="C3" s="1">
-        <v>0.37189</v>
+        <v>0.37142999999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>0.37423000000000001</v>
+        <v>0.37378</v>
       </c>
       <c r="E3" s="1">
-        <v>0.67303000000000002</v>
+        <v>0.67330000000000001</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -13012,16 +13033,16 @@
         <v>4.7190000000000003E-2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.17050999999999999</v>
+        <v>0.17050000000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>0.41816999999999999</v>
+        <v>0.41803000000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>0.42008000000000001</v>
+        <v>0.41998000000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.65790000000000004</v>
+        <v>0.65878000000000003</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -13032,19 +13053,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4.6980000000000001E-2</v>
+        <v>4.6969999999999998E-2</v>
       </c>
       <c r="B5" s="1">
-        <v>0.17055000000000001</v>
+        <v>0.17054</v>
       </c>
       <c r="C5" s="1">
-        <v>0.41913</v>
+        <v>0.41937999999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>0.42160999999999998</v>
+        <v>0.42185</v>
       </c>
       <c r="E5" s="1">
-        <v>0.66947999999999996</v>
+        <v>0.66727000000000003</v>
       </c>
       <c r="F5">
         <v>30</v>
@@ -13055,19 +13076,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4.7190000000000003E-2</v>
+        <v>4.7160000000000001E-2</v>
       </c>
       <c r="B6" s="1">
-        <v>0.17157</v>
+        <v>0.17149</v>
       </c>
       <c r="C6" s="1">
-        <v>0.41789999999999999</v>
+        <v>0.41832999999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>0.42104000000000003</v>
+        <v>0.42152000000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.65342</v>
+        <v>0.65615000000000001</v>
       </c>
       <c r="F6">
         <v>40</v>
@@ -13078,19 +13099,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>4.7210000000000002E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="B7" s="1">
-        <v>0.17165</v>
+        <v>0.17136000000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>0.41728999999999999</v>
+        <v>0.41986000000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>0.42066999999999999</v>
+        <v>0.42315999999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.65093000000000001</v>
+        <v>0.64819000000000004</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -13101,19 +13122,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>4.5629999999999997E-2</v>
+        <v>4.5620000000000001E-2</v>
       </c>
       <c r="B8" s="1">
-        <v>0.16939000000000001</v>
+        <v>0.16947999999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>0.43658000000000002</v>
+        <v>0.43672</v>
       </c>
       <c r="D8" s="1">
-        <v>0.43996000000000002</v>
+        <v>0.44013000000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.64287000000000005</v>
+        <v>0.64319000000000004</v>
       </c>
       <c r="F8">
         <v>60</v>
@@ -13124,19 +13145,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>4.4209999999999999E-2</v>
+        <v>4.3529999999999999E-2</v>
       </c>
       <c r="B9" s="1">
-        <v>0.16613</v>
+        <v>0.16442000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>0.45357999999999998</v>
+        <v>0.46200999999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>0.45639000000000002</v>
+        <v>0.46467999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.63302000000000003</v>
+        <v>0.63292999999999999</v>
       </c>
       <c r="F9">
         <v>70</v>
@@ -13150,16 +13171,16 @@
         <v>4.36E-2</v>
       </c>
       <c r="B10" s="1">
-        <v>0.16516</v>
+        <v>0.16517999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>0.46115</v>
+        <v>0.46111999999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>0.46322999999999998</v>
+        <v>0.46323999999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.63070000000000004</v>
+        <v>0.63027999999999995</v>
       </c>
       <c r="F10">
         <v>80</v>
@@ -13170,19 +13191,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>4.3880000000000002E-2</v>
+        <v>4.351E-2</v>
       </c>
       <c r="B11" s="1">
-        <v>0.16550999999999999</v>
+        <v>0.16466</v>
       </c>
       <c r="C11" s="1">
-        <v>0.45841999999999999</v>
+        <v>0.46278999999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>0.46068999999999999</v>
+        <v>0.46505999999999997</v>
       </c>
       <c r="E11" s="1">
-        <v>0.66063000000000005</v>
+        <v>0.66386999999999996</v>
       </c>
       <c r="F11">
         <v>199</v>
@@ -13222,13 +13243,13 @@
         <v>0.17655999999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>0.30048000000000002</v>
+        <v>0.30052000000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>0.30403999999999998</v>
+        <v>0.30406</v>
       </c>
       <c r="E14" s="1">
-        <v>0.58804999999999996</v>
+        <v>0.58809999999999996</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -13239,19 +13260,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>5.6559999999999999E-2</v>
+        <v>5.6570000000000002E-2</v>
       </c>
       <c r="B15" s="1">
-        <v>0.19323000000000001</v>
+        <v>0.19322</v>
       </c>
       <c r="C15" s="1">
-        <v>0.17616999999999999</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>0.17996999999999999</v>
+        <v>0.17977000000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.61465999999999998</v>
+        <v>0.61445000000000005</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -13265,16 +13286,16 @@
         <v>4.3439999999999999E-2</v>
       </c>
       <c r="B16" s="1">
-        <v>0.16794000000000001</v>
+        <v>0.16797999999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>0.36719000000000002</v>
+        <v>0.36718000000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>0.37029000000000001</v>
+        <v>0.37030000000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.57567999999999997</v>
+        <v>0.57616999999999996</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -13288,16 +13309,16 @@
         <v>4.0710000000000003E-2</v>
       </c>
       <c r="B17" s="1">
-        <v>0.16150999999999999</v>
+        <v>0.16156999999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>0.40805999999999998</v>
+        <v>0.40810000000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>0.41042000000000001</v>
+        <v>0.41044999999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.57793000000000005</v>
+        <v>0.57886000000000004</v>
       </c>
       <c r="F17">
         <v>30</v>
@@ -13308,19 +13329,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>4.2320000000000003E-2</v>
+        <v>4.2290000000000001E-2</v>
       </c>
       <c r="B18" s="1">
-        <v>0.16502</v>
+        <v>0.16492000000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>0.38618000000000002</v>
+        <v>0.38668999999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>0.38899</v>
+        <v>0.38945000000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.55427999999999999</v>
+        <v>0.55369000000000002</v>
       </c>
       <c r="F18">
         <v>40</v>
@@ -13331,19 +13352,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>4.0649999999999999E-2</v>
+        <v>4.0710000000000003E-2</v>
       </c>
       <c r="B19" s="1">
-        <v>0.16258</v>
+        <v>0.16277</v>
       </c>
       <c r="C19" s="1">
-        <v>0.40903</v>
+        <v>0.40805999999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>0.41309000000000001</v>
+        <v>0.41220000000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.55713000000000001</v>
+        <v>0.55730000000000002</v>
       </c>
       <c r="F19">
         <v>50</v>
@@ -13354,19 +13375,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>4.1320000000000003E-2</v>
+        <v>4.1329999999999999E-2</v>
       </c>
       <c r="B20" s="1">
         <v>0.16284999999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>0.40021000000000001</v>
+        <v>0.40007999999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>0.40309</v>
+        <v>0.40290999999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.56433</v>
+        <v>0.56523999999999996</v>
       </c>
       <c r="F20">
         <v>60</v>
@@ -13380,16 +13401,16 @@
         <v>4.036E-2</v>
       </c>
       <c r="B21" s="1">
-        <v>0.16092999999999999</v>
+        <v>0.16095000000000001</v>
       </c>
       <c r="C21" s="1">
         <v>0.41254999999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>0.41610000000000003</v>
+        <v>0.41607</v>
       </c>
       <c r="E21" s="1">
-        <v>0.56394999999999995</v>
+        <v>0.56460999999999995</v>
       </c>
       <c r="F21">
         <v>70</v>
@@ -13400,19 +13421,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>4.0099999999999997E-2</v>
+        <v>4.0189999999999997E-2</v>
       </c>
       <c r="B22" s="1">
-        <v>0.16055</v>
+        <v>0.16070999999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>0.41716999999999999</v>
+        <v>0.41589999999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>0.41959999999999997</v>
+        <v>0.41837000000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.57230999999999999</v>
+        <v>0.57118000000000002</v>
       </c>
       <c r="F22">
         <v>80</v>
@@ -13423,19 +13444,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>3.8949999999999999E-2</v>
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="B23" s="1">
-        <v>0.15858</v>
+        <v>0.15776999999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>0.434</v>
+        <v>0.43902000000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>0.43685000000000002</v>
+        <v>0.44175999999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.56323999999999996</v>
+        <v>0.56150999999999995</v>
       </c>
       <c r="F23">
         <v>199</v>
@@ -13445,9 +13466,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
-    <sortCondition ref="G2:G21"/>
-    <sortCondition ref="F2:F21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P20:V39">
+    <sortCondition ref="V20:V39"/>
+    <sortCondition ref="U20:U39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/results/results_RReliefF_graphs.xlsx
+++ b/results/results_RReliefF_graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DB8F54-5D4C-4923-877B-DC683754DD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19901EDE-E2D7-4F75-9DAA-8913B4A36281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AC6D3CE8-634E-4CC4-9BD5-D6CCBE23229D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AC6D3CE8-634E-4CC4-9BD5-D6CCBE23229D}"/>
   </bookViews>
   <sheets>
     <sheet name="SVR" sheetId="1" r:id="rId1"/>
@@ -12945,8 +12945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6838D4C6-CCEB-401B-A7FA-4AB81D104128}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/results_RReliefF_graphs.xlsx
+++ b/results/results_RReliefF_graphs.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19901EDE-E2D7-4F75-9DAA-8913B4A36281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4C61C9-C8C3-4BFB-9CD5-B4EFF61871F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AC6D3CE8-634E-4CC4-9BD5-D6CCBE23229D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AC6D3CE8-634E-4CC4-9BD5-D6CCBE23229D}"/>
   </bookViews>
   <sheets>
-    <sheet name="SVR" sheetId="1" r:id="rId1"/>
-    <sheet name="RF" sheetId="2" r:id="rId2"/>
+    <sheet name="RF" sheetId="2" r:id="rId1"/>
+    <sheet name="SVR" sheetId="1" r:id="rId2"/>
     <sheet name="NN" sheetId="3" r:id="rId3"/>
+    <sheet name="NNtogether" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="NN_both_reliefF_results" localSheetId="3">NNtogether!$A$1:$H$11</definedName>
     <definedName name="NN_results" localSheetId="2">NN!$A$1:$G$23</definedName>
-    <definedName name="RF_reliefF_results" localSheetId="1">RF!$P$19:$V$39</definedName>
-    <definedName name="RF_results" localSheetId="1">RF!$A$1:$G$23</definedName>
-    <definedName name="SVR_results" localSheetId="0">SVR!$A$1:$G$23</definedName>
+    <definedName name="RF_reliefF_results" localSheetId="0">RF!$P$19:$V$39</definedName>
+    <definedName name="RF_results" localSheetId="0">RF!$A$1:$G$23</definedName>
+    <definedName name="SVR_results" localSheetId="1">SVR!$A$1:$G$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +43,21 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{718F89DD-6C63-45F1-A192-2675A207CAED}" name="NN_results" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="1" xr16:uid="{5DB5D419-8E67-43E2-8DD1-BF0A75FFAFDF}" name="NN_both_reliefF_results" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\NN_both_reliefF_results.csv" comma="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{718F89DD-6C63-45F1-A192-2675A207CAED}" name="NN_results" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\NN_results.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -54,7 +70,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{70721061-292F-4266-906D-44C5A0D49981}" name="RF_reliefF_results" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="3" xr16:uid="{70721061-292F-4266-906D-44C5A0D49981}" name="RF_reliefF_results" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\RF_reliefF_results.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -67,7 +83,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{1D07D76F-3077-435D-A29E-0C7346C9CC1E}" name="RF_results" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="4" xr16:uid="{1D07D76F-3077-435D-A29E-0C7346C9CC1E}" name="RF_results" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\RF_results.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -80,7 +96,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{58ECEF8D-61AA-4F1E-9FD3-6AA76FD4A7C8}" name="SVR_results" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="5" xr16:uid="{58ECEF8D-61AA-4F1E-9FD3-6AA76FD4A7C8}" name="SVR_results" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\SVR_results.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -97,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="11">
   <si>
     <t>MSE</t>
   </si>
@@ -124,6 +140,12 @@
   </si>
   <si>
     <t>arousal</t>
+  </si>
+  <si>
+    <t>MXE valence</t>
+  </si>
+  <si>
+    <t>MXE arousal</t>
   </si>
 </sst>
 </file>
@@ -184,6 +206,2446 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI"/>
+              <a:t>RF arousal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.7800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0979999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7190000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6969999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7160000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5620000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3529999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.36E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.351E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.17241000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18092</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17136000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16947999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16442000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16517999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.41060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37142999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41803000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41937999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41832999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41986000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43672</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46200999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46111999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46278999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EVS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.41284999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41998000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42152000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42315999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44013000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46467999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46323999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46505999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MXE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.66559000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65878000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66727000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65615000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64819000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64319000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63292999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63027999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66386999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1197365199"/>
+        <c:axId val="1197368527"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1197365199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI" cap="none" baseline="0"/>
+                  <a:t>Number of features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sl-SI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197368527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1197368527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.75000000000000011"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197365199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sl-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI"/>
+              <a:t>RF</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sl-SI" baseline="0"/>
+              <a:t> Valence</a:t>
+            </a:r>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$14:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$A$14:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.8070000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6570000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3439999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0710000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2290000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0710000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1329999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.036E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0189999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8600000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$14:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$B$14:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.17655999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16797999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16156999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16284999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16095000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16070999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15776999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$14:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$C$14:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.30052000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36718000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38668999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40805999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40007999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41254999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43902000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EVS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$14:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$D$14:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.30406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17977000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41044999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38945000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40290999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41607</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41837000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44175999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MXE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>RF!$F$14:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RF!$E$14:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.58809999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61445000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57616999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57886000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55369000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56523999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56460999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57118000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56150999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1197365199"/>
+        <c:axId val="1197368527"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1197365199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI" cap="none" baseline="0"/>
+                  <a:t>Number of features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sl-SI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197368527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1197368527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.75000000000000011"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197365199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sl-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RF!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RF!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.7800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0979999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7190000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6969999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7160000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5620000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3529999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.36E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.351E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F11-4A55-8F09-4144FA558355}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="267794015"/>
+        <c:axId val="267794431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="267794015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267794431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="267794431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.5000000000000007E-2"/>
+          <c:min val="4.0000000000000008E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267794015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sl-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1248,7 +3710,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2188,2446 +4650,6 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sl-SI"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sl-SI"/>
-              <a:t>RF arousal</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MSE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$2:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.7800000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0979999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.7190000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6969999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.7160000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.5620000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.3529999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.36E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.351E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MAE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$2:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.17241000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18092</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.17054</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.17149</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17136000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.16947999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.16442000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16517999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.16466</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>R2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$2:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.41060000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.37142999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41803000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.41937999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.41832999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.41986000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.43672</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.46200999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.46111999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.46278999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EVS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$2:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.41284999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.37378</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41998000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.42185</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.42152000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.42315999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.44013000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.46467999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.46323999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.46505999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MXE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$2:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$E$2:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.66559000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.67330000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.65878000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66727000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65615000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64819000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.64319000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.63292999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.63027999999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.66386999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1197365199"/>
-        <c:axId val="1197368527"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1197365199"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="sl-SI" cap="none" baseline="0"/>
-                  <a:t>Number of features</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="sl-SI"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1197368527"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1197368527"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.75000000000000011"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1197365199"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sl-SI"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sl-SI"/>
-              <a:t>RF</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="sl-SI" baseline="0"/>
-              <a:t> Valence</a:t>
-            </a:r>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MSE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$14:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$A$14:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.8070000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.6570000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3439999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0710000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2290000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0710000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1329999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.036E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0189999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.8600000000000002E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MAE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$14:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$B$14:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.17655999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19322</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16797999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16156999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.16492000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16277</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.16284999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.16095000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16070999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.15776999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>R2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$14:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$C$14:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.30052000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.36718000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.40810000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.38668999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.40805999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.40007999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.41254999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.41589999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.43902000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$D$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EVS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$14:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$D$14:$D$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.30406</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17977000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.37030000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.41044999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.38945000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.41220000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.40290999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.41607</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.41837000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.44175999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$E$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MXE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>RF!$F$14:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RF!$E$14:$E$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.58809999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61445000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.57616999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.57886000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.55369000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.55730000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.56523999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56460999999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.57118000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.56150999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3561-4373-99DF-AD27DBBF3D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1197365199"/>
-        <c:axId val="1197368527"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1197365199"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="sl-SI" cap="none" baseline="0"/>
-                  <a:t>Number of features</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="sl-SI"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1197368527"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1197368527"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.75000000000000011"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1197365199"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sl-SI"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RF!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MSE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>RF!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.7800000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0979999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.7190000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6969999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.7160000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.5620000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.3529999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.36E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.351E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8F11-4A55-8F09-4144FA558355}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="267794015"/>
-        <c:axId val="267794431"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="267794015"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="267794431"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="267794431"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5.5000000000000007E-2"/>
-          <c:min val="4.0000000000000008E-2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="267794015"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -6757,6 +6779,1176 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI"/>
+              <a:t>NN both</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NNtogether!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NNtogether!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NNtogether!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.4690000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8180000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.475E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3220000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0069999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4140000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1130000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.126E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7230000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NNtogether!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NNtogether!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NNtogether!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.18626999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18851000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18451999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19156000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17741999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17777000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18015999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NNtogether!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NNtogether!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NNtogether!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.28993999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25091000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29457</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31513999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22781000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35416999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30425000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34127000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33933000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26451999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NNtogether!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EVS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NNtogether!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NNtogether!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.29218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25263000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29693000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31813000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22875000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35829</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32235999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34268999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34216999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26790999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1197365199"/>
+        <c:axId val="1197368527"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NNtogether!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MXE valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NNtogether!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NNtogether!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.45182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44286999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45730999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38574000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46822999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55022000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44311</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51629000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3561-4373-99DF-AD27DBBF3D99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NNtogether!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MXE arousal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NNtogether!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NNtogether!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.17848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22459000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19711999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19930999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10138999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.739E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-8711-4711-9C7C-E578123388CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1747878512"/>
+        <c:axId val="1747885168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1197365199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI" cap="none" baseline="0"/>
+                  <a:t>Number of features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sl-SI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197368527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1197368527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197365199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1747885168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1747878512"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1747878512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1747885168"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sl-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7037,6 +8229,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -8080,6 +9312,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8600,7 +10348,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9121,522 +10869,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -10679,84 +11911,528 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>31751</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>441447</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E220A6A-E9CC-48A9-9E2A-33619FC3050E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>31751</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>441447</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5ED05F0-8C62-4E63-A9B9-5F370721A7FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10869,6 +12545,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31751</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>441447</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E220A6A-E9CC-48A9-9E2A-33619FC3050E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31751</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>441447</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5ED05F0-8C62-4E63-A9B9-5F370721A7FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10948,20 +12701,65 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>229914</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>388749</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123497</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C833276-B511-49DC-8D73-DBE02D77785C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SVR_results" connectionId="4" xr16:uid="{B9339D59-30A5-46FB-9DA9-89D874C5F819}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_results" connectionId="4" xr16:uid="{583210D7-8790-400D-B425-3CB1B84FCB6F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_reliefF_results" connectionId="2" xr16:uid="{7B4A6772-D174-4B7C-9CC2-F63A5D94DC46}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_reliefF_results" connectionId="3" xr16:uid="{7B4A6772-D174-4B7C-9CC2-F63A5D94DC46}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_results" connectionId="3" xr16:uid="{583210D7-8790-400D-B425-3CB1B84FCB6F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SVR_results" connectionId="5" xr16:uid="{B9339D59-30A5-46FB-9DA9-89D874C5F819}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NN_results" connectionId="1" xr16:uid="{F85D14C2-1A35-4058-8C82-922395C60458}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NN_results" connectionId="2" xr16:uid="{F85D14C2-1A35-4058-8C82-922395C60458}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NN_both_reliefF_results" connectionId="1" xr16:uid="{10053166-B81E-4C19-97F4-0C62C32DF8B3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12403,7 +14201,827 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride5.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6838D4C6-CCEB-401B-A7FA-4AB81D104128}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.17241000000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.41060000000000002</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.41284999999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.66559000000000001</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>5.0979999999999998E-2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.18092</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.37142999999999998</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.37378</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.67330000000000001</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4.7190000000000003E-2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.17050000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.41803000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.41998000000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.65878000000000003</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4.6969999999999998E-2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.17054</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.41937999999999998</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.42185</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.66727000000000003</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4.7160000000000001E-2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.17149</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.41832999999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.42152000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.65615000000000001</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.17136000000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.41986000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.42315999999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.64819000000000004</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>4.5620000000000001E-2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.16947999999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.43672</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.44013000000000002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.64319000000000004</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4.3529999999999999E-2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.16442000000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.46200999999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.46467999999999998</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.63292999999999999</v>
+      </c>
+      <c r="F9">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>4.36E-2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.16517999999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.46111999999999997</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.46323999999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.63027999999999995</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>4.351E-2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.16466</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.46278999999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.46505999999999997</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.66386999999999996</v>
+      </c>
+      <c r="F11">
+        <v>199</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>4.8070000000000002E-2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.17655999999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.30052000000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.30406</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.58809999999999996</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>5.6570000000000002E-2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.19322</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.17977000000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.61445000000000005</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>4.3439999999999999E-2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.16797999999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.36718000000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.37030000000000002</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.57616999999999996</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>4.0710000000000003E-2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.16156999999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.40810000000000002</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.41044999999999998</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.57886000000000004</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>4.2290000000000001E-2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.16492000000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.38668999999999998</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.38945000000000002</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.55369000000000002</v>
+      </c>
+      <c r="F18">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>4.0710000000000003E-2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.16277</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.40805999999999998</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.41220000000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.55730000000000002</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>4.1329999999999999E-2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.16284999999999999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.40007999999999999</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.40290999999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.56523999999999996</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>4.036E-2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.16095000000000001</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.41254999999999997</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.41607</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.56460999999999995</v>
+      </c>
+      <c r="F21">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>4.0189999999999997E-2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.16070999999999999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.41589999999999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.41837000000000002</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.57118000000000002</v>
+      </c>
+      <c r="F22">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.15776999999999999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.43902000000000002</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.44175999999999999</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.56150999999999995</v>
+      </c>
+      <c r="F23">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P20:V39">
+    <sortCondition ref="V20:V39"/>
+    <sortCondition ref="U20:U39"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5863D7C3-7A4F-4420-AEEB-0842CB319AF9}">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -12941,546 +15559,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6838D4C6-CCEB-401B-A7FA-4AB81D104128}">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>4.7800000000000002E-2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.17241000000000001</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.41060000000000002</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.41284999999999999</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.66559000000000001</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>5.0979999999999998E-2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.18092</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.37142999999999998</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.37378</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.67330000000000001</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>4.7190000000000003E-2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.17050000000000001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.41803000000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.41998000000000002</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.65878000000000003</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4.6969999999999998E-2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.17054</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.41937999999999998</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.42185</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.66727000000000003</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4.7160000000000001E-2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.17149</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.41832999999999998</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.42152000000000001</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.65615000000000001</v>
-      </c>
-      <c r="F6">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4.7E-2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.17136000000000001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.41986000000000001</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.42315999999999998</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.64819000000000004</v>
-      </c>
-      <c r="F7">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>4.5620000000000001E-2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.16947999999999999</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.43672</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.44013000000000002</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.64319000000000004</v>
-      </c>
-      <c r="F8">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4.3529999999999999E-2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.16442000000000001</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.46200999999999998</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.46467999999999998</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.63292999999999999</v>
-      </c>
-      <c r="F9">
-        <v>70</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>4.36E-2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.16517999999999999</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.46111999999999997</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.46323999999999999</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.63027999999999995</v>
-      </c>
-      <c r="F10">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>4.351E-2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.16466</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.46278999999999998</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.46505999999999997</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.66386999999999996</v>
-      </c>
-      <c r="F11">
-        <v>199</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>4.8070000000000002E-2</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.17655999999999999</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.30052000000000001</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.30406</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.58809999999999996</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>5.6570000000000002E-2</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.19322</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.17977000000000001</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.61445000000000005</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>4.3439999999999999E-2</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.16797999999999999</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.36718000000000001</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.37030000000000002</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.57616999999999996</v>
-      </c>
-      <c r="F16">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>4.0710000000000003E-2</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.16156999999999999</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.40810000000000002</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.41044999999999998</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.57886000000000004</v>
-      </c>
-      <c r="F17">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>4.2290000000000001E-2</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.16492000000000001</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.38668999999999998</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.38945000000000002</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.55369000000000002</v>
-      </c>
-      <c r="F18">
-        <v>40</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>4.0710000000000003E-2</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.16277</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.40805999999999998</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.41220000000000001</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.55730000000000002</v>
-      </c>
-      <c r="F19">
-        <v>50</v>
-      </c>
-      <c r="G19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>4.1329999999999999E-2</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.16284999999999999</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.40007999999999999</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.40290999999999999</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.56523999999999996</v>
-      </c>
-      <c r="F20">
-        <v>60</v>
-      </c>
-      <c r="G20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>4.036E-2</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.16095000000000001</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.41254999999999997</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.41607</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.56460999999999995</v>
-      </c>
-      <c r="F21">
-        <v>70</v>
-      </c>
-      <c r="G21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>4.0189999999999997E-2</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.16070999999999999</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.41589999999999999</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.41837000000000002</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.57118000000000002</v>
-      </c>
-      <c r="F22">
-        <v>80</v>
-      </c>
-      <c r="G22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.15776999999999999</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.43902000000000002</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.44175999999999999</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.56150999999999995</v>
-      </c>
-      <c r="F23">
-        <v>199</v>
-      </c>
-      <c r="G23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P20:V39">
-    <sortCondition ref="V20:V39"/>
-    <sortCondition ref="U20:U39"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AD0B05-F5D6-4F3F-B04A-A58B97CBA7BE}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14004,4 +16088,280 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9619AAEE-370D-4704-AE5E-B4DA95E0FE5B}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5.4690000000000003E-2</v>
+      </c>
+      <c r="B2">
+        <v>0.18626999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.28993999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.29218</v>
+      </c>
+      <c r="E2">
+        <v>0.45182</v>
+      </c>
+      <c r="F2">
+        <v>0.17848</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5.8180000000000003E-2</v>
+      </c>
+      <c r="B3">
+        <v>0.19172</v>
+      </c>
+      <c r="C3">
+        <v>0.25091000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.25263000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.44286999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.22744</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5.475E-2</v>
+      </c>
+      <c r="B4">
+        <v>0.18851000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.29457</v>
+      </c>
+      <c r="D4">
+        <v>0.29693000000000003</v>
+      </c>
+      <c r="E4">
+        <v>0.42659999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.22459000000000001</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5.3220000000000003E-2</v>
+      </c>
+      <c r="B5">
+        <v>0.18451999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.31513999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.31813000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.45730999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.19711999999999999</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6.0069999999999998E-2</v>
+      </c>
+      <c r="B6">
+        <v>0.19156000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.22781000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.22875000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.38574000000000003</v>
+      </c>
+      <c r="F6">
+        <v>0.16414999999999999</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="B7">
+        <v>0.17741999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.35416999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.35829</v>
+      </c>
+      <c r="E7">
+        <v>0.46822999999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5.4140000000000001E-2</v>
+      </c>
+      <c r="B8">
+        <v>0.18608</v>
+      </c>
+      <c r="C8">
+        <v>0.30425000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.32235999999999998</v>
+      </c>
+      <c r="E8">
+        <v>0.55022000000000004</v>
+      </c>
+      <c r="F8">
+        <v>0.19930999999999999</v>
+      </c>
+      <c r="G8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5.1130000000000002E-2</v>
+      </c>
+      <c r="B9">
+        <v>0.17777000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.34127000000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.34268999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.41025</v>
+      </c>
+      <c r="F9">
+        <v>0.10138999999999999</v>
+      </c>
+      <c r="G9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5.126E-2</v>
+      </c>
+      <c r="B10">
+        <v>0.18015999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.33933000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.34216999999999997</v>
+      </c>
+      <c r="E10">
+        <v>0.44311</v>
+      </c>
+      <c r="F10">
+        <v>7.739E-2</v>
+      </c>
+      <c r="G10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5.7230000000000003E-2</v>
+      </c>
+      <c r="B11">
+        <v>0.18442</v>
+      </c>
+      <c r="C11">
+        <v>0.26451999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.26790999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.51629000000000003</v>
+      </c>
+      <c r="F11">
+        <v>0.17015</v>
+      </c>
+      <c r="G11">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/results/results_RReliefF_graphs.xlsx
+++ b/results/results_RReliefF_graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4C61C9-C8C3-4BFB-9CD5-B4EFF61871F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C369AA2E-24B2-43E6-84FD-CBAC9891AB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AC6D3CE8-634E-4CC4-9BD5-D6CCBE23229D}"/>
   </bookViews>
@@ -12706,15 +12706,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>229914</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47297</xdr:rowOff>
+      <xdr:colOff>131380</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>388749</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123497</xdr:rowOff>
+      <xdr:colOff>290215</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156342</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16095,7 +16095,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/results_RReliefF_graphs.xlsx
+++ b/results/results_RReliefF_graphs.xlsx
@@ -8,18 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C369AA2E-24B2-43E6-84FD-CBAC9891AB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4863A75-26CE-4663-88E1-015AE1E50EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AC6D3CE8-634E-4CC4-9BD5-D6CCBE23229D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{AC6D3CE8-634E-4CC4-9BD5-D6CCBE23229D}"/>
   </bookViews>
   <sheets>
     <sheet name="RF" sheetId="2" r:id="rId1"/>
     <sheet name="SVR" sheetId="1" r:id="rId2"/>
     <sheet name="NN" sheetId="3" r:id="rId3"/>
     <sheet name="NNtogether" sheetId="4" r:id="rId4"/>
+    <sheet name="NNtogether (2)" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="NN_both_reliefF_results" localSheetId="3">NNtogether!$A$1:$H$11</definedName>
+    <definedName name="NN_both_reliefF_results" localSheetId="4">'NNtogether (2)'!$A$1:$H$11</definedName>
+    <definedName name="NN_both_reliefF_results_1" localSheetId="4">'NNtogether (2)'!$D$17:$J$27</definedName>
     <definedName name="NN_results" localSheetId="2">NN!$A$1:$G$23</definedName>
     <definedName name="RF_reliefF_results" localSheetId="0">RF!$P$19:$V$39</definedName>
     <definedName name="RF_results" localSheetId="0">RF!$A$1:$G$23</definedName>
@@ -57,7 +60,34 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{718F89DD-6C63-45F1-A192-2675A207CAED}" name="NN_results" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="2" xr16:uid="{8C4A4B31-DB79-4D09-881D-824B40E95146}" name="NN_both_reliefF_results1" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\NN_both_reliefF_results.csv" comma="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{8147B4FD-8ED8-4153-B1CB-0DCD9BD340A1}" name="NN_both_reliefF_results2" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\NN_both_reliefF_results.csv" comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{718F89DD-6C63-45F1-A192-2675A207CAED}" name="NN_results" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\NN_results.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -70,7 +100,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{70721061-292F-4266-906D-44C5A0D49981}" name="RF_reliefF_results" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="5" xr16:uid="{70721061-292F-4266-906D-44C5A0D49981}" name="RF_reliefF_results" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\RF_reliefF_results.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -83,7 +113,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{1D07D76F-3077-435D-A29E-0C7346C9CC1E}" name="RF_results" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="6" xr16:uid="{1D07D76F-3077-435D-A29E-0C7346C9CC1E}" name="RF_results" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\RF_results.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -96,7 +126,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{58ECEF8D-61AA-4F1E-9FD3-6AA76FD4A7C8}" name="SVR_results" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="7" xr16:uid="{58ECEF8D-61AA-4F1E-9FD3-6AA76FD4A7C8}" name="SVR_results" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Fakulteta\2_stopnja\3sem\SU\Seminarska\programiranje2021\results\SVR_results.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -113,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="11">
   <si>
     <t>MSE</t>
   </si>
@@ -152,8 +182,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -165,12 +196,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,9 +222,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6937,37 +6980,37 @@
             <c:numRef>
               <c:f>NNtogether!$A$2:$A$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.4690000000000003E-2</c:v>
+                  <c:v>6.5579999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8180000000000003E-2</c:v>
+                  <c:v>5.602E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.475E-2</c:v>
+                  <c:v>5.425E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3220000000000003E-2</c:v>
+                  <c:v>5.5230000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0069999999999998E-2</c:v>
+                  <c:v>5.4769999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0099999999999999E-2</c:v>
+                  <c:v>5.0119999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4140000000000001E-2</c:v>
+                  <c:v>5.083E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1130000000000002E-2</c:v>
+                  <c:v>4.743E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.126E-2</c:v>
+                  <c:v>4.8099999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7230000000000003E-2</c:v>
+                  <c:v>4.9979999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7061,37 +7104,37 @@
             <c:numRef>
               <c:f>NNtogether!$B$2:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.18626999999999999</c:v>
+                  <c:v>0.20685000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19172</c:v>
+                  <c:v>0.18844</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18851000000000001</c:v>
+                  <c:v>0.18734999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18451999999999999</c:v>
+                  <c:v>0.18775</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19156000000000001</c:v>
+                  <c:v>0.18495</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17741999999999999</c:v>
+                  <c:v>0.17813999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18608</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17777000000000001</c:v>
+                  <c:v>0.17308999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18015999999999999</c:v>
+                  <c:v>0.17355999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18442</c:v>
+                  <c:v>0.17741000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7185,37 +7228,37 @@
             <c:numRef>
               <c:f>NNtogether!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.28993999999999998</c:v>
+                  <c:v>0.15901000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25091000000000002</c:v>
+                  <c:v>0.28054000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29457</c:v>
+                  <c:v>0.29887000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31513999999999998</c:v>
+                  <c:v>0.28860000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22781000000000001</c:v>
+                  <c:v>0.29722999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35416999999999998</c:v>
+                  <c:v>0.35483999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30425000000000002</c:v>
+                  <c:v>0.34656999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34127000000000002</c:v>
+                  <c:v>0.38999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33933000000000002</c:v>
+                  <c:v>0.38179000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26451999999999998</c:v>
+                  <c:v>0.35708000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7307,37 +7350,37 @@
             <c:numRef>
               <c:f>NNtogether!$D$2:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.29218</c:v>
+                  <c:v>0.16291</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25263000000000002</c:v>
+                  <c:v>0.28084999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29693000000000003</c:v>
+                  <c:v>0.30124000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31813000000000002</c:v>
+                  <c:v>0.29308000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22875000000000001</c:v>
+                  <c:v>0.29901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35829</c:v>
+                  <c:v>0.35653000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32235999999999998</c:v>
+                  <c:v>0.34754000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34268999999999999</c:v>
+                  <c:v>0.39041999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34216999999999997</c:v>
+                  <c:v>0.38357000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26790999999999998</c:v>
+                  <c:v>0.36757000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7445,37 +7488,37 @@
             <c:numRef>
               <c:f>NNtogether!$E$2:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.45182</c:v>
+                  <c:v>0.53503999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44286999999999999</c:v>
+                  <c:v>0.43733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42659999999999998</c:v>
+                  <c:v>0.42921999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45730999999999999</c:v>
+                  <c:v>0.46422999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38574000000000003</c:v>
+                  <c:v>0.38177</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46822999999999998</c:v>
+                  <c:v>0.44225999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55022000000000004</c:v>
+                  <c:v>0.4834</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41025</c:v>
+                  <c:v>0.41420000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.44311</c:v>
+                  <c:v>0.49112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51629000000000003</c:v>
+                  <c:v>0.45285999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7569,37 +7612,37 @@
             <c:numRef>
               <c:f>NNtogether!$F$2:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.17848</c:v>
+                  <c:v>0.17433999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22744</c:v>
+                  <c:v>0.20913000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22459000000000001</c:v>
+                  <c:v>0.15986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19711999999999999</c:v>
+                  <c:v>0.20787</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16414999999999999</c:v>
+                  <c:v>0.14510000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15329999999999999</c:v>
+                  <c:v>0.10306999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19930999999999999</c:v>
+                  <c:v>0.10101</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10138999999999999</c:v>
+                  <c:v>0.16447000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.739E-2</c:v>
+                  <c:v>9.912E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17015</c:v>
+                  <c:v>0.12225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7766,7 +7809,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7814,7 +7857,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7867,6 +7910,1178 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1747885168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sl-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI"/>
+              <a:t>NN both</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NNtogether (2)'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NNtogether (2)'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NNtogether (2)'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.7280000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3769999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2310000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6679999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8619999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6210000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6489999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EEEE-4362-B22C-80A6BDAF07F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NNtogether (2)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NNtogether (2)'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NNtogether (2)'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.17458000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17827999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17616999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17363999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17766999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17083000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EEEE-4362-B22C-80A6BDAF07F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NNtogether (2)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NNtogether (2)'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NNtogether (2)'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.33524999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26362000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30546000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32783000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34451999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31811</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36424000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34960000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34472000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EEEE-4362-B22C-80A6BDAF07F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NNtogether (2)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EVS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NNtogether (2)'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NNtogether (2)'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.33588000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24482999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26871</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30547000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32999000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34627000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31995000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36686999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35054999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35381000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EEEE-4362-B22C-80A6BDAF07F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1197365199"/>
+        <c:axId val="1197368527"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NNtogether (2)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MXE valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NNtogether (2)'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NNtogether (2)'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.28416000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26844000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32012000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28877999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32518000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34661999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30093999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42732999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26273000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30987999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EEEE-4362-B22C-80A6BDAF07F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NNtogether (2)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MXE arousal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NNtogether (2)'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NNtogether (2)'!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.19442999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31818000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17843000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23597000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19223000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18623999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18953</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18964</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17194999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EEEE-4362-B22C-80A6BDAF07F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1747878512"/>
+        <c:axId val="1747885168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1197365199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI" cap="none" baseline="0"/>
+                  <a:t>Number of features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sl-SI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197368527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1197368527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197365199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1747885168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1747878512"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1747878512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1747885168"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -8269,6 +9484,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -11912,6 +13167,527 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12742,24 +14518,75 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>131380</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>290215</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156342</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FAC7BD0-82EA-4C17-9263-5D3F888C9487}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_results" connectionId="4" xr16:uid="{583210D7-8790-400D-B425-3CB1B84FCB6F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_results" connectionId="6" xr16:uid="{583210D7-8790-400D-B425-3CB1B84FCB6F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_reliefF_results" connectionId="3" xr16:uid="{7B4A6772-D174-4B7C-9CC2-F63A5D94DC46}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RF_reliefF_results" connectionId="5" xr16:uid="{7B4A6772-D174-4B7C-9CC2-F63A5D94DC46}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SVR_results" connectionId="5" xr16:uid="{B9339D59-30A5-46FB-9DA9-89D874C5F819}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SVR_results" connectionId="7" xr16:uid="{B9339D59-30A5-46FB-9DA9-89D874C5F819}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NN_results" connectionId="2" xr16:uid="{F85D14C2-1A35-4058-8C82-922395C60458}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NN_results" connectionId="4" xr16:uid="{F85D14C2-1A35-4058-8C82-922395C60458}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NN_both_reliefF_results" connectionId="1" xr16:uid="{10053166-B81E-4C19-97F4-0C62C32DF8B3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NN_both_reliefF_results_1" connectionId="3" xr16:uid="{6FF39E5C-D105-4310-9E32-92886A5AD57E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NN_both_reliefF_results" connectionId="2" xr16:uid="{EFC8F0FB-0DB8-4C4E-9D8C-10FBCE0C382E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14487,12 +16314,298 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride6.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6838D4C6-CCEB-401B-A7FA-4AB81D104128}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14505,7 +16618,7 @@
     <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14528,7 +16641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4.7800000000000002E-2</v>
       </c>
@@ -14551,7 +16664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5.0979999999999998E-2</v>
       </c>
@@ -14574,7 +16687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4.7190000000000003E-2</v>
       </c>
@@ -14597,7 +16710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4.6969999999999998E-2</v>
       </c>
@@ -14620,7 +16733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4.7160000000000001E-2</v>
       </c>
@@ -14643,7 +16756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4.7E-2</v>
       </c>
@@ -14666,7 +16779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4.5620000000000001E-2</v>
       </c>
@@ -14689,30 +16802,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>4.3529999999999999E-2</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>0.16442000000000001</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>0.46200999999999998</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0.46467999999999998</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>0.63292999999999999</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>70</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4.36E-2</v>
       </c>
@@ -14735,7 +16849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4.351E-2</v>
       </c>
@@ -14758,7 +16872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -14781,7 +16895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4.8070000000000002E-2</v>
       </c>
@@ -14804,7 +16918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>5.6570000000000002E-2</v>
       </c>
@@ -14827,7 +16941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>4.3439999999999999E-2</v>
       </c>
@@ -14989,27 +17103,33 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>0.15776999999999999</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>0.43902000000000002</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>0.44175999999999999</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>0.56150999999999995</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>199</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P20:V39">
@@ -15023,10 +17143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5863D7C3-7A4F-4420-AEEB-0842CB319AF9}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15267,25 +17387,25 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>4.9079999999999999E-2</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>0.17413999999999999</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>0.39463999999999999</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.39795999999999998</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>0.67474999999999996</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>199</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -15389,25 +17509,25 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>0.16772999999999999</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>0.36663000000000001</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>0.36996000000000001</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>0.58992999999999995</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>30</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15548,6 +17668,9 @@
       <c r="G23" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
@@ -15561,10 +17684,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AD0B05-F5D6-4F3F-B04A-A58B97CBA7BE}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15782,25 +17905,25 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>5.0619999999999998E-2</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>0.17493</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>0.41776000000000002</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0.42407</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>0.89502999999999999</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>80</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -16012,25 +18135,25 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>4.2229999999999997E-2</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>0.16644</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>0.38496999999999998</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>0.38603999999999999</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>0.60829999999999995</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>70</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16079,6 +18202,12 @@
       <c r="G23" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
@@ -16092,19 +18221,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9619AAEE-370D-4704-AE5E-B4DA95E0FE5B}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -16131,233 +18260,521 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5.4690000000000003E-2</v>
-      </c>
-      <c r="B2">
-        <v>0.18626999999999999</v>
-      </c>
-      <c r="C2">
-        <v>0.28993999999999998</v>
-      </c>
-      <c r="D2">
-        <v>0.29218</v>
-      </c>
-      <c r="E2">
-        <v>0.45182</v>
-      </c>
-      <c r="F2">
-        <v>0.17848</v>
+      <c r="A2" s="4">
+        <v>6.5579999999999999E-2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.20685000000000001</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.15901000000000001</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.16291</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.53503999999999996</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.17433999999999999</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5.8180000000000003E-2</v>
-      </c>
-      <c r="B3">
-        <v>0.19172</v>
-      </c>
-      <c r="C3">
-        <v>0.25091000000000002</v>
-      </c>
-      <c r="D3">
-        <v>0.25263000000000002</v>
-      </c>
-      <c r="E3">
-        <v>0.44286999999999999</v>
-      </c>
-      <c r="F3">
-        <v>0.22744</v>
+      <c r="A3" s="4">
+        <v>5.602E-2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.18844</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.28054000000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.28084999999999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.43733</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.20913000000000001</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5.475E-2</v>
-      </c>
-      <c r="B4">
-        <v>0.18851000000000001</v>
-      </c>
-      <c r="C4">
-        <v>0.29457</v>
-      </c>
-      <c r="D4">
-        <v>0.29693000000000003</v>
-      </c>
-      <c r="E4">
-        <v>0.42659999999999998</v>
-      </c>
-      <c r="F4">
-        <v>0.22459000000000001</v>
+      <c r="A4" s="4">
+        <v>5.425E-2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.18734999999999999</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.29887000000000002</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.30124000000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.42921999999999999</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.15986</v>
       </c>
       <c r="G4">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5.3220000000000003E-2</v>
-      </c>
-      <c r="B5">
-        <v>0.18451999999999999</v>
-      </c>
-      <c r="C5">
-        <v>0.31513999999999998</v>
-      </c>
-      <c r="D5">
-        <v>0.31813000000000002</v>
-      </c>
-      <c r="E5">
-        <v>0.45730999999999999</v>
-      </c>
-      <c r="F5">
-        <v>0.19711999999999999</v>
+      <c r="A5" s="4">
+        <v>5.5230000000000001E-2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.18775</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.28860000000000002</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.29308000000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.46422999999999998</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.20787</v>
       </c>
       <c r="G5">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6.0069999999999998E-2</v>
-      </c>
-      <c r="B6">
-        <v>0.19156000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.22781000000000001</v>
-      </c>
-      <c r="D6">
-        <v>0.22875000000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.38574000000000003</v>
-      </c>
-      <c r="F6">
-        <v>0.16414999999999999</v>
+      <c r="A6" s="4">
+        <v>5.4769999999999999E-2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.18495</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.29722999999999999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.29901</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.38177</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.14510000000000001</v>
       </c>
       <c r="G6">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5.0099999999999999E-2</v>
-      </c>
-      <c r="B7">
-        <v>0.17741999999999999</v>
-      </c>
-      <c r="C7">
-        <v>0.35416999999999998</v>
-      </c>
-      <c r="D7">
-        <v>0.35829</v>
-      </c>
-      <c r="E7">
-        <v>0.46822999999999998</v>
-      </c>
-      <c r="F7">
-        <v>0.15329999999999999</v>
-      </c>
-      <c r="G7">
+      <c r="A7" s="6">
+        <v>5.0119999999999998E-2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.17813999999999999</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.35483999999999999</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.35653000000000001</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.44225999999999999</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.10306999999999999</v>
+      </c>
+      <c r="G7" s="7">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5.4140000000000001E-2</v>
-      </c>
-      <c r="B8">
-        <v>0.18608</v>
-      </c>
-      <c r="C8">
-        <v>0.30425000000000002</v>
-      </c>
-      <c r="D8">
-        <v>0.32235999999999998</v>
-      </c>
-      <c r="E8">
-        <v>0.55022000000000004</v>
-      </c>
-      <c r="F8">
-        <v>0.19930999999999999</v>
+      <c r="A8" s="4">
+        <v>5.083E-2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.34656999999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.34754000000000002</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.4834</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.10101</v>
       </c>
       <c r="G8">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5.1130000000000002E-2</v>
-      </c>
-      <c r="B9">
-        <v>0.17777000000000001</v>
-      </c>
-      <c r="C9">
-        <v>0.34127000000000002</v>
-      </c>
-      <c r="D9">
-        <v>0.34268999999999999</v>
-      </c>
-      <c r="E9">
-        <v>0.41025</v>
-      </c>
-      <c r="F9">
-        <v>0.10138999999999999</v>
-      </c>
-      <c r="G9">
+      <c r="A9" s="5">
+        <v>4.743E-2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.17308999999999999</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.38999</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.39041999999999999</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.41420000000000001</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.16447000000000001</v>
+      </c>
+      <c r="G9" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5.126E-2</v>
-      </c>
-      <c r="B10">
-        <v>0.18015999999999999</v>
-      </c>
-      <c r="C10">
-        <v>0.33933000000000002</v>
-      </c>
-      <c r="D10">
-        <v>0.34216999999999997</v>
-      </c>
-      <c r="E10">
-        <v>0.44311</v>
-      </c>
-      <c r="F10">
-        <v>7.739E-2</v>
+      <c r="A10" s="4">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.17355999999999999</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.38179000000000002</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.38357000000000002</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.49112</v>
+      </c>
+      <c r="F10" s="4">
+        <v>9.912E-2</v>
       </c>
       <c r="G10">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5.7230000000000003E-2</v>
-      </c>
-      <c r="B11">
-        <v>0.18442</v>
-      </c>
-      <c r="C11">
-        <v>0.26451999999999998</v>
-      </c>
-      <c r="D11">
-        <v>0.26790999999999998</v>
-      </c>
-      <c r="E11">
-        <v>0.51629000000000003</v>
-      </c>
-      <c r="F11">
-        <v>0.17015</v>
+      <c r="A11" s="4">
+        <v>4.9979999999999997E-2</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.17741000000000001</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.35708000000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.36757000000000001</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.45285999999999998</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.12225</v>
       </c>
       <c r="G11">
         <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f>MIN(A2:A11)</f>
+        <v>4.743E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C345F79F-BC75-4643-B9DD-46A23D38E201}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>4.7280000000000003E-2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.17458000000000001</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.33524999999999999</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.33588000000000001</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.28416000000000002</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.19442999999999999</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>5.3769999999999998E-2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.18622</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.24364</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.24482999999999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.26844000000000001</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.18386</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>5.2310000000000002E-2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.18603</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.26362000000000002</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.26871</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.32012000000000002</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.31818000000000002</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.17827999999999999</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.30546000000000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.30547000000000002</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.28877999999999998</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.17843000000000001</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.17616999999999999</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.32783000000000001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.32999000000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.32518000000000002</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.23597000000000001</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>4.6679999999999999E-2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.17363999999999999</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.34451999999999999</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.34627000000000002</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.34661999999999998</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.19223000000000001</v>
+      </c>
+      <c r="G7" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4.8619999999999997E-2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.17766999999999999</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.31811</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.31995000000000001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.30093999999999999</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.18623999999999999</v>
+      </c>
+      <c r="G8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.17013</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.36424000000000001</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.36686999999999997</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.42732999999999999</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.18953</v>
+      </c>
+      <c r="G9" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>4.6210000000000001E-2</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.17083000000000001</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.34960000000000002</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.35054999999999997</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.26273000000000002</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.18964</v>
+      </c>
+      <c r="G10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>4.6489999999999997E-2</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.17024</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.34472000000000003</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.35381000000000001</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.30987999999999999</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.17194999999999999</v>
+      </c>
+      <c r="G11">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f>MIN(A2:A11)</f>
+        <v>4.5100000000000001E-2</v>
       </c>
     </row>
   </sheetData>
